--- a/tweets_supreme_teste.xlsx
+++ b/tweets_supreme_teste.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Área de Trabalho\Ciencia dos dados\CD18-master\aula01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\Projeto 2 de C.D\Projeto-2-ciencia-dos-dados-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D299F407-DD74-4B54-8740-9CD806C82A98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CE8101A1-ACC4-4DE8-8428-2D16F88D67B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{6A67E55C-3A9E-41FD-B13B-63816AD845A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -657,7 +656,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1005,16 +1004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4681AF-DD52-47A1-8598-2DC703664F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="161.7109375" customWidth="1"/>
+    <col min="1" max="1" width="146.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
@@ -1065,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">

--- a/tweets_supreme_teste.xlsx
+++ b/tweets_supreme_teste.xlsx
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,9 +2693,6 @@
         <v>160</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182">
         <v>0</v>
       </c>
     </row>
@@ -2731,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2753,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2764,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
